--- a/00_Document/03_Testing/Backend/テストケース番号作成方法.xlsx
+++ b/00_Document/03_Testing/Backend/テストケース番号作成方法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0C503-830B-436A-9777-5EAFDCA7C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4190F1-4B32-4EEC-97B8-978990876B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>01 - 管理者</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>01_001_004 -&gt; 管理者　フード作成　テストケース5番</t>
+  </si>
+  <si>
+    <t>002　-　スタッフ作成</t>
+  </si>
+  <si>
+    <t>01_002_001 -&gt; 管理者　スタッフ作成　テストケース1番</t>
   </si>
 </sst>
 </file>
@@ -104,10 +110,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H17"/>
+  <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,117 +408,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
+  <mergeCells count="14">
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B18:H18"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Document/03_Testing/Backend/テストケース番号作成方法.xlsx
+++ b/00_Document/03_Testing/Backend/テストケース番号作成方法.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4190F1-4B32-4EEC-97B8-978990876B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0198F-8BD0-48F0-82E3-47AADDB5D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>01 - 管理者</t>
   </si>
   <si>
-    <t>001 - テストケース番号</t>
-  </si>
-  <si>
-    <t>02_001_001 -&gt; 利用者　ムービー一覧　テストケース1番</t>
-  </si>
-  <si>
     <t>02　- スタッフ</t>
   </si>
   <si>
     <t>001　-　フード作成</t>
   </si>
   <si>
-    <t>01_001_001 -&gt; 管理者　フード作成　テストケース1番</t>
-  </si>
-  <si>
-    <t>01_001_002 -&gt; 管理者　フード作成　テストケース2番</t>
-  </si>
-  <si>
-    <t>01_001_003 -&gt; 管理者　フード作成　テストケース3番</t>
-  </si>
-  <si>
-    <t>01_001_004 -&gt; 管理者　フード作成　テストケース4番</t>
-  </si>
-  <si>
-    <t>01_001_004 -&gt; 管理者　フード作成　テストケース5番</t>
-  </si>
-  <si>
-    <t>002　-　スタッフ作成</t>
-  </si>
-  <si>
-    <t>01_002_001 -&gt; 管理者　スタッフ作成　テストケース1番</t>
+    <t>001　-　フード</t>
+  </si>
+  <si>
+    <t>002　-　スタッフ</t>
+  </si>
+  <si>
+    <t>01 - テストケース番号</t>
+  </si>
+  <si>
+    <t>01_001_001_01 -&gt; 管理者　フード作成　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_001_001_02 -&gt; 管理者　フード作成　テストケース2番</t>
+  </si>
+  <si>
+    <t>01_001_001_03 -&gt; 管理者　フード作成　テストケース3番</t>
+  </si>
+  <si>
+    <t>002　-　フードアップデート</t>
+  </si>
+  <si>
+    <t>002　-　スタッフアップデート</t>
+  </si>
+  <si>
+    <t>003　-　フードデリート</t>
+  </si>
+  <si>
+    <t>004　-　フードリスト</t>
+  </si>
+  <si>
+    <t>001　-　スタッフ作成</t>
+  </si>
+  <si>
+    <t>003　-　スタッフデリート</t>
+  </si>
+  <si>
+    <t>004　-　スタッフリスト</t>
+  </si>
+  <si>
+    <t>01_002_001_01 -&gt; 管理者　スタッフ作成　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_002_002_01 -&gt; 管理者　スタッフアップデート　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_002_001_02 -&gt; 管理者　スタッフ作成　テストケース2番</t>
+  </si>
+  <si>
+    <t>01_002_003_01 -&gt; 管理者　スタッフデリート テストケース1番</t>
+  </si>
+  <si>
+    <t>01_002_004_01 -&gt; 管理者　スタッフリスト テストケース1番</t>
+  </si>
+  <si>
+    <t>01_002_003_02 -&gt; 管理者　スタッフデリート テストケース2番</t>
+  </si>
+  <si>
+    <t>01_001_002_01 -&gt; 管理者　フードアップデート　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_001_003_01 -&gt; 管理者　フードデリート　テストケース1番</t>
+  </si>
+  <si>
+    <t>01_001_004_01 -&gt; 管理者　フードリスト　テストケース1番</t>
+  </si>
+  <si>
+    <t>003　-　注文</t>
+  </si>
+  <si>
+    <t>001　-　注文作成</t>
+  </si>
+  <si>
+    <t>002　-　注文リスト</t>
+  </si>
+  <si>
+    <t>02_003_001_01 -&gt; スタッフ　注文作成 テストケース1番</t>
+  </si>
+  <si>
+    <t>02_003_002_01 -&gt; スタッフ　注文リスト テストケース1番</t>
+  </si>
+  <si>
+    <t>02_004_01 -&gt; スタッフ　チェンジパスワード テストケース1番</t>
+  </si>
+  <si>
+    <t>02_004_02 -&gt; スタッフ　チェンジパスワード テストケース2番</t>
+  </si>
+  <si>
+    <t>02_004_03 -&gt; スタッフ　チェンジパスワード テストケース3番</t>
+  </si>
+  <si>
+    <t>02_004_04 -&gt; スタッフ　チェンジパスワード テストケース4番</t>
+  </si>
+  <si>
+    <t>004　-　チェンジパスワード</t>
   </si>
 </sst>
 </file>
@@ -105,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,6 +183,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -396,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H20"/>
+  <dimension ref="B3:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,149 +494,437 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
+  <mergeCells count="33">
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
